--- a/xlsxmaps/level_0005.xlsx
+++ b/xlsxmaps/level_0005.xlsx
@@ -59,7 +59,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -172,13 +172,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -209,16 +296,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -242,6 +347,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1303,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1376,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
+        <v>41001000</v>
+      </c>
+      <c r="G3" s="4">
         <v>41000000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>41001000</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -1473,6 +1579,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1485,14 +1618,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1548,10 +1681,10 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4">
@@ -1571,7 +1704,7 @@
       <c r="B4" s="6">
         <v>31000000</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>31001000</v>
       </c>
       <c r="D4" s="8">
@@ -1594,10 +1727,10 @@
       <c r="B5" s="9">
         <v>31001000</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -1655,6 +1788,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
